--- a/feature/add-complete-cptsexample/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/add-complete-cptsexample/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T08:56:42+00:00</t>
+    <t>2025-01-27T09:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
